--- a/biology/Zoologie/Erromyzon/Erromyzon.xlsx
+++ b/biology/Zoologie/Erromyzon/Erromyzon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erromyzon est un genre de poissons d'eau douce téléostéens de la famille des Gastromyzontidae (ordre des Cypriniformes). Ces espèces sont originaires d'Asie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erromyzon est un genre de poissons d'eau douce téléostéens de la famille des Gastromyzontidae (ordre des Cypriniformes). Ces espèces sont originaires d'Asie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (11 août 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (11 août 2023) :
 Erromyzon compactus Kottelat, 2004
 Erromyzon damingshanensis Xiu &amp; Yang, 2017
 Erromyzon kalotaenia Yang, Kottelat, Yang &amp; Chen, 2012
@@ -546,9 +560,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Erromyzon Kottelat, 2004[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Erromyzon Kottelat, 2004,.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Erromyzon, du latin error, « course à l'aventure » (=se tromper, faire une erreur) et myzon, derniers caractères du genre Protomyzon, fait référence au classement initial erroné de l'espèce type, Erromyzon sinensis, dans le genre Protomyzon[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Erromyzon, du latin error, « course à l'aventure » (=se tromper, faire une erreur) et myzon, derniers caractères du genre Protomyzon, fait référence au classement initial erroné de l'espèce type, Erromyzon sinensis, dans le genre Protomyzon.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Maurice Kottelat, « On the Bornean and Chinese Protomyzon (Teleostei: Balitoridae), with descriptions of two new genera and two new species from Borneo, Vietnam and China », Ichthyological Exploration of Freshwaters, vol. 15, no 4,‎ 1er décembre 2004, p. 301-310 (ISSN 0936-9902)</t>
         </is>
